--- a/backend/users_data.xlsx
+++ b/backend/users_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/backend/users_data.xlsx
+++ b/backend/users_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/backend/users_data.xlsx
+++ b/backend/users_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P201"/>
+  <dimension ref="A1:Q203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +518,11 @@
           <t>passwords</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>__v</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -588,6 +597,7 @@
           <t>12345678</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -666,6 +676,7 @@
           <t>NQ@y9_Ov</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -744,6 +755,7 @@
           <t>G)15(NdX</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -822,6 +834,7 @@
           <t>$rP2BHvI</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -900,6 +913,7 @@
           <t>h)4kTZYp</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -978,6 +992,7 @@
           <t>(Q)0Ws2y</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1056,6 +1071,7 @@
           <t>%4IXkLt%</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1134,6 +1150,7 @@
           <t>*78A1Hqu</t>
         </is>
       </c>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1212,6 +1229,7 @@
           <t>0_5k#Dbg</t>
         </is>
       </c>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1290,6 +1308,7 @@
           <t>#7OUp&amp;cy</t>
         </is>
       </c>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1368,6 +1387,7 @@
           <t>)2C*qp2e</t>
         </is>
       </c>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1446,6 +1466,7 @@
           <t>P(l4Cnh(</t>
         </is>
       </c>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1524,6 +1545,7 @@
           <t>+3@9CNlu</t>
         </is>
       </c>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1602,6 +1624,7 @@
           <t>+5nES5Dg</t>
         </is>
       </c>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1680,6 +1703,7 @@
           <t>Yum%0fVb</t>
         </is>
       </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1758,6 +1782,7 @@
           <t>wHg)5R8e</t>
         </is>
       </c>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1836,6 +1861,7 @@
           <t>KKG)1cTm</t>
         </is>
       </c>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1914,6 +1940,7 @@
           <t>__223WWn</t>
         </is>
       </c>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1992,6 +2019,7 @@
           <t>&amp;0In)5Bc</t>
         </is>
       </c>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2070,6 +2098,7 @@
           <t>R%8AYfq2</t>
         </is>
       </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2148,6 +2177,7 @@
           <t>%64Nz@m!</t>
         </is>
       </c>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2226,6 +2256,7 @@
           <t>*0K!LUTo</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2304,6 +2335,7 @@
           <t>I&amp;m5D1Ky</t>
         </is>
       </c>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2382,6 +2414,7 @@
           <t>6!$(3Nqb</t>
         </is>
       </c>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2460,6 +2493,7 @@
           <t>)7oj5Hgd</t>
         </is>
       </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2538,6 +2572,7 @@
           <t>)8v2ADc0</t>
         </is>
       </c>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2616,6 +2651,7 @@
           <t>@44JSWfm</t>
         </is>
       </c>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2694,6 +2730,7 @@
           <t>Z!#5LlmV</t>
         </is>
       </c>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2772,6 +2809,7 @@
           <t>f$k0BCcz</t>
         </is>
       </c>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2850,6 +2888,7 @@
           <t>&amp;wvn0vUk</t>
         </is>
       </c>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2928,6 +2967,7 @@
           <t>n^9W@_wy</t>
         </is>
       </c>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3006,6 +3046,7 @@
           <t>4_*)3Mtg</t>
         </is>
       </c>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3084,6 +3125,7 @@
           <t>(B7Y)Ef1</t>
         </is>
       </c>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3162,6 +3204,7 @@
           <t>#!8Hx!39</t>
         </is>
       </c>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3240,6 +3283,7 @@
           <t>^Ev5FeL_</t>
         </is>
       </c>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3318,6 +3362,7 @@
           <t>#)x3@Qsg</t>
         </is>
       </c>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3396,6 +3441,7 @@
           <t>$b9pBjoj</t>
         </is>
       </c>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3472,6 +3518,7 @@
       <c r="P39" t="e">
         <v>#NAME?</v>
       </c>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3550,6 +3597,7 @@
           <t>a_44EyGc</t>
         </is>
       </c>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3628,6 +3676,7 @@
           <t>)5EoXK8j</t>
         </is>
       </c>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3706,6 +3755,7 @@
           <t>@Y2+KKwb</t>
         </is>
       </c>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3784,6 +3834,7 @@
           <t>!6%K9Ajg</t>
         </is>
       </c>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3862,6 +3913,7 @@
           <t>Z)s4RXUm</t>
         </is>
       </c>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3940,6 +3992,7 @@
           <t>R)6UUzhg</t>
         </is>
       </c>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4018,6 +4071,7 @@
           <t>%98BI3sR</t>
         </is>
       </c>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4096,6 +4150,7 @@
           <t>&amp;0**79Uh</t>
         </is>
       </c>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4174,6 +4229,7 @@
           <t>J&amp;3_Ngvy</t>
         </is>
       </c>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4252,6 +4308,7 @@
           <t>#6M*3&amp;r$</t>
         </is>
       </c>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4330,6 +4387,7 @@
           <t>3(48UTw$</t>
         </is>
       </c>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4408,6 +4466,7 @@
           <t>@P87DFPx</t>
         </is>
       </c>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4484,6 +4543,7 @@
       <c r="P52" t="e">
         <v>#NAME?</v>
       </c>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4560,6 +4620,7 @@
       <c r="P53" t="e">
         <v>#NAME?</v>
       </c>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4638,6 +4699,7 @@
           <t>y^F7X+zL</t>
         </is>
       </c>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4716,6 +4778,7 @@
           <t>^3GPPz4)</t>
         </is>
       </c>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4794,6 +4857,7 @@
           <t>98%8Bqii</t>
         </is>
       </c>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4872,6 +4936,7 @@
           <t>_3&amp;eYA4k</t>
         </is>
       </c>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4950,6 +5015,7 @@
           <t>x^1jaTze</t>
         </is>
       </c>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5028,6 +5094,7 @@
           <t>L#oO3VYr</t>
         </is>
       </c>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5106,6 +5173,7 @@
           <t>%S1JWeXB</t>
         </is>
       </c>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5184,6 +5252,7 @@
           <t>5#53Cx0r</t>
         </is>
       </c>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5262,6 +5331,7 @@
           <t>&amp;a9!6SUv</t>
         </is>
       </c>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5340,6 +5410,7 @@
           <t>#v9C66By</t>
         </is>
       </c>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5418,6 +5489,7 @@
           <t>7&amp;3E^Epl</t>
         </is>
       </c>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5496,6 +5568,7 @@
           <t>J!5Miu*X</t>
         </is>
       </c>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5574,6 +5647,7 @@
           <t>!8UCbiZ&amp;</t>
         </is>
       </c>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5652,6 +5726,7 @@
           <t>Jds@8oOt</t>
         </is>
       </c>
+      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5730,6 +5805,7 @@
           <t>)27TZ#yv</t>
         </is>
       </c>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5808,6 +5884,7 @@
           <t>$0EZtOR%</t>
         </is>
       </c>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5886,6 +5963,7 @@
           <t>*j9DVzX5</t>
         </is>
       </c>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5964,6 +6042,7 @@
           <t>2pk_6#Nt</t>
         </is>
       </c>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6042,6 +6121,7 @@
           <t>4J%0nJ@b</t>
         </is>
       </c>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6120,6 +6200,7 @@
           <t>T^n9Epyi</t>
         </is>
       </c>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6198,6 +6279,7 @@
           <t>^q&amp;3Fx@r</t>
         </is>
       </c>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6276,6 +6358,7 @@
           <t>n^H1lRMg</t>
         </is>
       </c>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6354,6 +6437,7 @@
           <t>$!6HBDRc</t>
         </is>
       </c>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6432,6 +6516,7 @@
           <t>)x4DvyaW</t>
         </is>
       </c>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6508,6 +6593,7 @@
       <c r="P78" t="e">
         <v>#NAME?</v>
       </c>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6586,6 +6672,7 @@
           <t>%q)2SKxz</t>
         </is>
       </c>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6664,6 +6751,7 @@
           <t>^89TXyIo</t>
         </is>
       </c>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6742,6 +6830,7 @@
           <t>1d*6WHmP</t>
         </is>
       </c>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6820,6 +6909,7 @@
           <t>^PJv1Gqp</t>
         </is>
       </c>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6898,6 +6988,7 @@
           <t>%419EtAh</t>
         </is>
       </c>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6976,6 +7067,7 @@
           <t>*X0qEK(r</t>
         </is>
       </c>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7054,6 +7146,7 @@
           <t>fx!91XIj</t>
         </is>
       </c>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7132,6 +7225,7 @@
           <t>(07eoW9x</t>
         </is>
       </c>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7210,6 +7304,7 @@
           <t>)^3I9dsK</t>
         </is>
       </c>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7288,6 +7383,7 @@
           <t>F&amp;9CMgzn</t>
         </is>
       </c>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7366,6 +7462,7 @@
           <t>e+6(rMcf</t>
         </is>
       </c>
+      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7444,6 +7541,7 @@
           <t>0_!8Ht_z</t>
         </is>
       </c>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7522,6 +7620,7 @@
           <t>8N#r7B3e</t>
         </is>
       </c>
+      <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7600,6 +7699,7 @@
           <t>*4(fXcip</t>
         </is>
       </c>
+      <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7678,6 +7778,7 @@
           <t>)e69GGpa</t>
         </is>
       </c>
+      <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7756,6 +7857,7 @@
           <t>6f#$09Mp</t>
         </is>
       </c>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7834,6 +7936,7 @@
           <t>!8iR7Mb+</t>
         </is>
       </c>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7912,6 +8015,7 @@
           <t>f7%q5XvB</t>
         </is>
       </c>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7990,6 +8094,7 @@
           <t>9@+2H&amp;xb</t>
         </is>
       </c>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8068,6 +8173,7 @@
           <t>*T4sSy$j</t>
         </is>
       </c>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8146,6 +8252,7 @@
           <t>@s#c59Lr</t>
         </is>
       </c>
+      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8224,6 +8331,7 @@
           <t>^_5xC^mJ</t>
         </is>
       </c>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8302,6 +8410,7 @@
           <t>DD0&amp;6XWe</t>
         </is>
       </c>
+      <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8380,6 +8489,7 @@
           <t>a&amp;8J3zLl</t>
         </is>
       </c>
+      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8458,6 +8568,7 @@
           <t>hCE+8)Na</t>
         </is>
       </c>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8536,6 +8647,7 @@
           <t>&amp;lAe5Aek</t>
         </is>
       </c>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8614,6 +8726,7 @@
           <t>@nWm6Zfr</t>
         </is>
       </c>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8692,6 +8805,7 @@
           <t>##6sRzjC</t>
         </is>
       </c>
+      <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8770,6 +8884,7 @@
           <t>)6aKmQo5</t>
         </is>
       </c>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8848,6 +8963,7 @@
           <t>F!1KK#!c</t>
         </is>
       </c>
+      <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8926,6 +9042,7 @@
           <t>#)W9vUUd</t>
         </is>
       </c>
+      <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9004,6 +9121,7 @@
           <t>$h6Fe7Rf</t>
         </is>
       </c>
+      <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9082,6 +9200,7 @@
           <t>GCt_2VMi</t>
         </is>
       </c>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9160,6 +9279,7 @@
           <t>#62A_6oZ</t>
         </is>
       </c>
+      <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9238,6 +9358,7 @@
           <t>)(3N)#^a</t>
         </is>
       </c>
+      <c r="Q113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9316,6 +9437,7 @@
           <t>!V*9Dkkn</t>
         </is>
       </c>
+      <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9394,6 +9516,7 @@
           <t>x_lv8GZf</t>
         </is>
       </c>
+      <c r="Q115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9472,6 +9595,7 @@
           <t>z&amp;n9K4bl</t>
         </is>
       </c>
+      <c r="Q116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9550,6 +9674,7 @@
           <t>^7AHcGf+</t>
         </is>
       </c>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9628,6 +9753,7 @@
           <t>#2JNVznf</t>
         </is>
       </c>
+      <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9706,6 +9832,7 @@
           <t>v)N1Do7Q</t>
         </is>
       </c>
+      <c r="Q119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9782,6 +9909,7 @@
       <c r="P120" t="e">
         <v>#NAME?</v>
       </c>
+      <c r="Q120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9860,6 +9988,7 @@
           <t>@2&amp;HKAik</t>
         </is>
       </c>
+      <c r="Q121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9938,6 +10067,7 @@
           <t>T+3&amp;3D#o</t>
         </is>
       </c>
+      <c r="Q122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10016,6 +10146,7 @@
           <t>9+T7w6Wo</t>
         </is>
       </c>
+      <c r="Q123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10094,6 +10225,7 @@
           <t>G+9pYUzB</t>
         </is>
       </c>
+      <c r="Q124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10172,6 +10304,7 @@
           <t>B+(#2Iwz</t>
         </is>
       </c>
+      <c r="Q125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10250,6 +10383,7 @@
           <t>@4$9Jl1R</t>
         </is>
       </c>
+      <c r="Q126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10328,6 +10462,7 @@
           <t>o^eR79Dz</t>
         </is>
       </c>
+      <c r="Q127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10406,6 +10541,7 @@
           <t>t!x7QToW</t>
         </is>
       </c>
+      <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10484,6 +10620,7 @@
           <t>B#Q$*5Sq</t>
         </is>
       </c>
+      <c r="Q129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10562,6 +10699,7 @@
           <t>e)wp1xNk</t>
         </is>
       </c>
+      <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10640,6 +10778,7 @@
           <t>C^4B6pnq</t>
         </is>
       </c>
+      <c r="Q131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -10718,6 +10857,7 @@
           <t>&amp;)1Kn(a0</t>
         </is>
       </c>
+      <c r="Q132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10796,6 +10936,7 @@
           <t>O$U3Cxrn</t>
         </is>
       </c>
+      <c r="Q133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10874,6 +11015,7 @@
           <t>^N3Aw7C^</t>
         </is>
       </c>
+      <c r="Q134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10952,6 +11094,7 @@
           <t>+9ESkP^_</t>
         </is>
       </c>
+      <c r="Q135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11030,6 +11173,7 @@
           <t>^v0+A3Yb</t>
         </is>
       </c>
+      <c r="Q136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11108,6 +11252,7 @@
           <t>)k8PoKnM</t>
         </is>
       </c>
+      <c r="Q137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11186,6 +11331,7 @@
           <t>*8G!cnYG</t>
         </is>
       </c>
+      <c r="Q138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11264,6 +11410,7 @@
           <t>%_2N#ln9</t>
         </is>
       </c>
+      <c r="Q139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -11342,6 +11489,7 @@
           <t>v)Z4gAer</t>
         </is>
       </c>
+      <c r="Q140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -11420,6 +11568,7 @@
           <t>IE$2Ag%i</t>
         </is>
       </c>
+      <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11498,6 +11647,7 @@
           <t>x)T20C(h</t>
         </is>
       </c>
+      <c r="Q142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11576,6 +11726,7 @@
           <t>@7Xkw@Hj</t>
         </is>
       </c>
+      <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11654,6 +11805,7 @@
           <t>W*n0KNfI</t>
         </is>
       </c>
+      <c r="Q144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -11732,6 +11884,7 @@
           <t>@(1ZpA5@</t>
         </is>
       </c>
+      <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -11810,6 +11963,7 @@
           <t>_3LhYsNk</t>
         </is>
       </c>
+      <c r="Q146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -11888,6 +12042,7 @@
           <t>%1joPmmh</t>
         </is>
       </c>
+      <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11966,6 +12121,7 @@
           <t>^*ZT2(Di</t>
         </is>
       </c>
+      <c r="Q148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12044,6 +12200,7 @@
           <t>h_y53pBz</t>
         </is>
       </c>
+      <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12122,6 +12279,7 @@
           <t>y%V1Wigq</t>
         </is>
       </c>
+      <c r="Q150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12200,6 +12358,7 @@
           <t>6y)((7Pc</t>
         </is>
       </c>
+      <c r="Q151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -12278,6 +12437,7 @@
           <t>7@3MVnLs</t>
         </is>
       </c>
+      <c r="Q152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12354,6 +12514,7 @@
       <c r="P153" t="e">
         <v>#NAME?</v>
       </c>
+      <c r="Q153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12432,6 +12593,7 @@
           <t>$c6wUk#f</t>
         </is>
       </c>
+      <c r="Q154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -12510,6 +12672,7 @@
           <t>sY^1eSju</t>
         </is>
       </c>
+      <c r="Q155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -12588,6 +12751,7 @@
           <t>^7K#pc1a</t>
         </is>
       </c>
+      <c r="Q156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -12666,6 +12830,7 @@
           <t>Gn^97Blc</t>
         </is>
       </c>
+      <c r="Q157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -12744,6 +12909,7 @@
           <t>#R7U+rbx</t>
         </is>
       </c>
+      <c r="Q158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -12822,6 +12988,7 @@
           <t>o^7G&amp;SQc</t>
         </is>
       </c>
+      <c r="Q159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -12900,6 +13067,7 @@
           <t>ks$65Lfu</t>
         </is>
       </c>
+      <c r="Q160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -12978,6 +13146,7 @@
           <t>2_rL91Bi</t>
         </is>
       </c>
+      <c r="Q161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -13056,6 +13225,7 @@
           <t>+3QlRNzD</t>
         </is>
       </c>
+      <c r="Q162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -13134,6 +13304,7 @@
           <t>(_RB0SQx</t>
         </is>
       </c>
+      <c r="Q163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -13212,6 +13383,7 @@
           <t>s^06D+8p</t>
         </is>
       </c>
+      <c r="Q164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -13290,6 +13462,7 @@
           <t>Jj@8MJcD</t>
         </is>
       </c>
+      <c r="Q165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -13368,6 +13541,7 @@
           <t>1@K*82Fp</t>
         </is>
       </c>
+      <c r="Q166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -13446,6 +13620,7 @@
           <t>)2oc0Vaq</t>
         </is>
       </c>
+      <c r="Q167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -13524,6 +13699,7 @@
           <t>)@O8OfAa</t>
         </is>
       </c>
+      <c r="Q168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -13602,6 +13778,7 @@
           <t>$7Swxh5Y</t>
         </is>
       </c>
+      <c r="Q169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -13680,6 +13857,7 @@
           <t>+c4DQVMc</t>
         </is>
       </c>
+      <c r="Q170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -13758,6 +13936,7 @@
           <t>4%D1PIn!</t>
         </is>
       </c>
+      <c r="Q171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -13836,6 +14015,7 @@
           <t>)_0Ruh*(</t>
         </is>
       </c>
+      <c r="Q172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -13914,6 +14094,7 @@
           <t>^@Z4!KWs</t>
         </is>
       </c>
+      <c r="Q173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -13992,6 +14173,7 @@
           <t>&amp;aY7YEcR</t>
         </is>
       </c>
+      <c r="Q174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -14070,6 +14252,7 @@
           <t>&amp;32Iqdr&amp;</t>
         </is>
       </c>
+      <c r="Q175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -14148,6 +14331,7 @@
           <t>%dy7NL1u</t>
         </is>
       </c>
+      <c r="Q176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -14226,6 +14410,7 @@
           <t>&amp;8awUdIq</t>
         </is>
       </c>
+      <c r="Q177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -14304,6 +14489,7 @@
           <t>!p8XJrJ+</t>
         </is>
       </c>
+      <c r="Q178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -14382,6 +14568,7 @@
           <t>H(8Jk!wX</t>
         </is>
       </c>
+      <c r="Q179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -14460,6 +14647,7 @@
           <t>)5J9NfD+</t>
         </is>
       </c>
+      <c r="Q180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -14538,6 +14726,7 @@
           <t>#7W7Cn$d</t>
         </is>
       </c>
+      <c r="Q181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -14616,6 +14805,7 @@
           <t>h%q9v3Hn</t>
         </is>
       </c>
+      <c r="Q182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -14694,6 +14884,7 @@
           <t>y^K9Ac2E</t>
         </is>
       </c>
+      <c r="Q183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -14772,6 +14963,7 @@
           <t>%7IIM(iP</t>
         </is>
       </c>
+      <c r="Q184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -14850,6 +15042,7 @@
           <t>m)x@9Lzu</t>
         </is>
       </c>
+      <c r="Q185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -14928,6 +15121,7 @@
           <t>*F4X6ZEc</t>
         </is>
       </c>
+      <c r="Q186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -15006,6 +15200,7 @@
           <t>)35^DwAk</t>
         </is>
       </c>
+      <c r="Q187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -15084,6 +15279,7 @@
           <t>^+3tXnmq</t>
         </is>
       </c>
+      <c r="Q188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -15162,6 +15358,7 @@
           <t>_P8tSdBx</t>
         </is>
       </c>
+      <c r="Q189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -15240,6 +15437,7 @@
           <t>7*3wIMht</t>
         </is>
       </c>
+      <c r="Q190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -15318,6 +15516,7 @@
           <t>H+8BCwvC</t>
         </is>
       </c>
+      <c r="Q191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -15396,6 +15595,7 @@
           <t>#%cY1VaN</t>
         </is>
       </c>
+      <c r="Q192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -15474,6 +15674,7 @@
           <t>V&amp;0E5QXv</t>
         </is>
       </c>
+      <c r="Q193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -15552,6 +15753,7 @@
           <t>p)*4BUvk</t>
         </is>
       </c>
+      <c r="Q194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -15630,6 +15832,7 @@
           <t>j%5K6Bls</t>
         </is>
       </c>
+      <c r="Q195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -15708,6 +15911,7 @@
           <t>(g4N*Axj</t>
         </is>
       </c>
+      <c r="Q196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -15786,6 +15990,7 @@
           <t>O+1jKOsR</t>
         </is>
       </c>
+      <c r="Q197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -15864,6 +16069,7 @@
           <t>e#2pHXhn</t>
         </is>
       </c>
+      <c r="Q198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -15942,6 +16148,7 @@
           <t>_5QyswoC</t>
         </is>
       </c>
+      <c r="Q199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -16020,6 +16227,7 @@
           <t>$54ULQoy</t>
         </is>
       </c>
+      <c r="Q200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -16097,6 +16305,157 @@
         <is>
           <t>6*B*7VGm</t>
         </is>
+      </c>
+      <c r="Q201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Emp_210</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Kaustubhhhh</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Gupta</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>kaustubhgupta@gbtghrththjmangroup.com</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>08979630137</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H202" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>DBT, Azure, Full Stack, NodeJs, JavaScript</t>
+        </is>
+      </c>
+      <c r="J202" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Dehradun</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>employee</t>
+        </is>
+      </c>
+      <c r="O202" t="b">
+        <v>0</v>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>nofM</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Emp_211</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Kaustubhcddc</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Kaustubh</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>kacffvvustubhgupta@jmanefcdcddgroup.com</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>08979630137</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H203" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>DBT, Azure, Full Stack, NodeJs, JavaScript</t>
+        </is>
+      </c>
+      <c r="J203" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>Dehradun</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="O203" t="b">
+        <v>0</v>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>R9mW</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/users_data.xlsx
+++ b/backend/users_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q203"/>
+  <dimension ref="A1:Q204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16458,6 +16458,27 @@
         <v>0</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/users_data.xlsx
+++ b/backend/users_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -673,7 +673,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>NQ@y9_Ov</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>

--- a/backend/users_data.xlsx
+++ b/backend/users_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q204"/>
+  <dimension ref="A1:P200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,11 +514,6 @@
           <t>passwords</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>__v</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -597,7 +588,6 @@
           <t>12345678</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -676,7 +666,6 @@
           <t>12345678</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -755,7 +744,6 @@
           <t>G)15(NdX</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -834,7 +822,6 @@
           <t>$rP2BHvI</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -913,7 +900,6 @@
           <t>h)4kTZYp</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -992,7 +978,6 @@
           <t>(Q)0Ws2y</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1071,7 +1056,6 @@
           <t>%4IXkLt%</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1150,7 +1134,6 @@
           <t>*78A1Hqu</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1229,7 +1212,6 @@
           <t>0_5k#Dbg</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1308,7 +1290,6 @@
           <t>#7OUp&amp;cy</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1387,7 +1368,6 @@
           <t>)2C*qp2e</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1466,7 +1446,6 @@
           <t>P(l4Cnh(</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1545,7 +1524,6 @@
           <t>+3@9CNlu</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1624,7 +1602,6 @@
           <t>+5nES5Dg</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1703,7 +1680,6 @@
           <t>Yum%0fVb</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1782,7 +1758,6 @@
           <t>wHg)5R8e</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1861,7 +1836,6 @@
           <t>KKG)1cTm</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1940,7 +1914,6 @@
           <t>__223WWn</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2019,7 +1992,6 @@
           <t>&amp;0In)5Bc</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2098,7 +2070,6 @@
           <t>R%8AYfq2</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2177,7 +2148,6 @@
           <t>%64Nz@m!</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2256,7 +2226,6 @@
           <t>*0K!LUTo</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2335,7 +2304,6 @@
           <t>I&amp;m5D1Ky</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2414,7 +2382,6 @@
           <t>6!$(3Nqb</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2493,7 +2460,6 @@
           <t>)7oj5Hgd</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2572,7 +2538,6 @@
           <t>)8v2ADc0</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2651,7 +2616,6 @@
           <t>@44JSWfm</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2730,7 +2694,6 @@
           <t>Z!#5LlmV</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2809,7 +2772,6 @@
           <t>f$k0BCcz</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2888,7 +2850,6 @@
           <t>&amp;wvn0vUk</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2967,7 +2928,6 @@
           <t>n^9W@_wy</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3046,7 +3006,6 @@
           <t>4_*)3Mtg</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3125,7 +3084,6 @@
           <t>(B7Y)Ef1</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3204,7 +3162,6 @@
           <t>#!8Hx!39</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3283,7 +3240,6 @@
           <t>^Ev5FeL_</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3362,7 +3318,6 @@
           <t>#)x3@Qsg</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3441,7 +3396,6 @@
           <t>$b9pBjoj</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3518,7 +3472,6 @@
       <c r="P39" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3597,7 +3550,6 @@
           <t>a_44EyGc</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3676,7 +3628,6 @@
           <t>)5EoXK8j</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3755,7 +3706,6 @@
           <t>@Y2+KKwb</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3834,7 +3784,6 @@
           <t>!6%K9Ajg</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3913,7 +3862,6 @@
           <t>Z)s4RXUm</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3992,7 +3940,6 @@
           <t>R)6UUzhg</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4071,7 +4018,6 @@
           <t>%98BI3sR</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4150,7 +4096,6 @@
           <t>&amp;0**79Uh</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4229,7 +4174,6 @@
           <t>J&amp;3_Ngvy</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4308,7 +4252,6 @@
           <t>#6M*3&amp;r$</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4387,7 +4330,6 @@
           <t>3(48UTw$</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4466,7 +4408,6 @@
           <t>@P87DFPx</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4543,7 +4484,6 @@
       <c r="P52" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4620,7 +4560,6 @@
       <c r="P53" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4699,7 +4638,6 @@
           <t>y^F7X+zL</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4778,7 +4716,6 @@
           <t>^3GPPz4)</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4857,7 +4794,6 @@
           <t>98%8Bqii</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4936,7 +4872,6 @@
           <t>_3&amp;eYA4k</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5015,7 +4950,6 @@
           <t>x^1jaTze</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5094,7 +5028,6 @@
           <t>L#oO3VYr</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5173,7 +5106,6 @@
           <t>%S1JWeXB</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5252,7 +5184,6 @@
           <t>5#53Cx0r</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5331,7 +5262,6 @@
           <t>&amp;a9!6SUv</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5410,7 +5340,6 @@
           <t>#v9C66By</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5489,7 +5418,6 @@
           <t>7&amp;3E^Epl</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5568,7 +5496,6 @@
           <t>J!5Miu*X</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5647,7 +5574,6 @@
           <t>!8UCbiZ&amp;</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5726,7 +5652,6 @@
           <t>Jds@8oOt</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5805,7 +5730,6 @@
           <t>)27TZ#yv</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5884,7 +5808,6 @@
           <t>$0EZtOR%</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5963,7 +5886,6 @@
           <t>*j9DVzX5</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6042,7 +5964,6 @@
           <t>2pk_6#Nt</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6121,7 +6042,6 @@
           <t>4J%0nJ@b</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6200,7 +6120,6 @@
           <t>T^n9Epyi</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6279,7 +6198,6 @@
           <t>^q&amp;3Fx@r</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6358,7 +6276,6 @@
           <t>n^H1lRMg</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6437,7 +6354,6 @@
           <t>$!6HBDRc</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6516,7 +6432,6 @@
           <t>)x4DvyaW</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6593,7 +6508,6 @@
       <c r="P78" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6672,7 +6586,6 @@
           <t>%q)2SKxz</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6751,7 +6664,6 @@
           <t>^89TXyIo</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6830,7 +6742,6 @@
           <t>1d*6WHmP</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6909,7 +6820,6 @@
           <t>^PJv1Gqp</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6988,7 +6898,6 @@
           <t>%419EtAh</t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7067,7 +6976,6 @@
           <t>*X0qEK(r</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7146,7 +7054,6 @@
           <t>fx!91XIj</t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7225,7 +7132,6 @@
           <t>(07eoW9x</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7304,7 +7210,6 @@
           <t>)^3I9dsK</t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7383,7 +7288,6 @@
           <t>F&amp;9CMgzn</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7462,7 +7366,6 @@
           <t>e+6(rMcf</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7541,7 +7444,6 @@
           <t>0_!8Ht_z</t>
         </is>
       </c>
-      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7620,7 +7522,6 @@
           <t>8N#r7B3e</t>
         </is>
       </c>
-      <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7699,7 +7600,6 @@
           <t>*4(fXcip</t>
         </is>
       </c>
-      <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7778,7 +7678,6 @@
           <t>)e69GGpa</t>
         </is>
       </c>
-      <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7857,7 +7756,6 @@
           <t>6f#$09Mp</t>
         </is>
       </c>
-      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7936,7 +7834,6 @@
           <t>!8iR7Mb+</t>
         </is>
       </c>
-      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8015,7 +7912,6 @@
           <t>f7%q5XvB</t>
         </is>
       </c>
-      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8094,7 +7990,6 @@
           <t>9@+2H&amp;xb</t>
         </is>
       </c>
-      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8173,7 +8068,6 @@
           <t>*T4sSy$j</t>
         </is>
       </c>
-      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8252,7 +8146,6 @@
           <t>@s#c59Lr</t>
         </is>
       </c>
-      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8331,7 +8224,6 @@
           <t>^_5xC^mJ</t>
         </is>
       </c>
-      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8410,7 +8302,6 @@
           <t>DD0&amp;6XWe</t>
         </is>
       </c>
-      <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8489,7 +8380,6 @@
           <t>a&amp;8J3zLl</t>
         </is>
       </c>
-      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8568,7 +8458,6 @@
           <t>hCE+8)Na</t>
         </is>
       </c>
-      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8647,7 +8536,6 @@
           <t>&amp;lAe5Aek</t>
         </is>
       </c>
-      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8726,7 +8614,6 @@
           <t>@nWm6Zfr</t>
         </is>
       </c>
-      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8805,7 +8692,6 @@
           <t>##6sRzjC</t>
         </is>
       </c>
-      <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8884,7 +8770,6 @@
           <t>)6aKmQo5</t>
         </is>
       </c>
-      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8963,7 +8848,6 @@
           <t>F!1KK#!c</t>
         </is>
       </c>
-      <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9042,7 +8926,6 @@
           <t>#)W9vUUd</t>
         </is>
       </c>
-      <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9121,7 +9004,6 @@
           <t>$h6Fe7Rf</t>
         </is>
       </c>
-      <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9200,7 +9082,6 @@
           <t>GCt_2VMi</t>
         </is>
       </c>
-      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9279,7 +9160,6 @@
           <t>#62A_6oZ</t>
         </is>
       </c>
-      <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9358,7 +9238,6 @@
           <t>)(3N)#^a</t>
         </is>
       </c>
-      <c r="Q113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9437,7 +9316,6 @@
           <t>!V*9Dkkn</t>
         </is>
       </c>
-      <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9516,7 +9394,6 @@
           <t>x_lv8GZf</t>
         </is>
       </c>
-      <c r="Q115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9595,7 +9472,6 @@
           <t>z&amp;n9K4bl</t>
         </is>
       </c>
-      <c r="Q116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9674,7 +9550,6 @@
           <t>^7AHcGf+</t>
         </is>
       </c>
-      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9753,7 +9628,6 @@
           <t>#2JNVznf</t>
         </is>
       </c>
-      <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9832,7 +9706,6 @@
           <t>v)N1Do7Q</t>
         </is>
       </c>
-      <c r="Q119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9909,7 +9782,6 @@
       <c r="P120" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="Q120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9988,7 +9860,6 @@
           <t>@2&amp;HKAik</t>
         </is>
       </c>
-      <c r="Q121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10067,7 +9938,6 @@
           <t>T+3&amp;3D#o</t>
         </is>
       </c>
-      <c r="Q122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10146,7 +10016,6 @@
           <t>9+T7w6Wo</t>
         </is>
       </c>
-      <c r="Q123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10225,7 +10094,6 @@
           <t>G+9pYUzB</t>
         </is>
       </c>
-      <c r="Q124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10304,7 +10172,6 @@
           <t>B+(#2Iwz</t>
         </is>
       </c>
-      <c r="Q125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10383,7 +10250,6 @@
           <t>@4$9Jl1R</t>
         </is>
       </c>
-      <c r="Q126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10462,7 +10328,6 @@
           <t>o^eR79Dz</t>
         </is>
       </c>
-      <c r="Q127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10541,7 +10406,6 @@
           <t>t!x7QToW</t>
         </is>
       </c>
-      <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10620,7 +10484,6 @@
           <t>B#Q$*5Sq</t>
         </is>
       </c>
-      <c r="Q129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10699,7 +10562,6 @@
           <t>e)wp1xNk</t>
         </is>
       </c>
-      <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10778,7 +10640,6 @@
           <t>C^4B6pnq</t>
         </is>
       </c>
-      <c r="Q131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -10857,7 +10718,6 @@
           <t>&amp;)1Kn(a0</t>
         </is>
       </c>
-      <c r="Q132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10936,7 +10796,6 @@
           <t>O$U3Cxrn</t>
         </is>
       </c>
-      <c r="Q133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11015,7 +10874,6 @@
           <t>^N3Aw7C^</t>
         </is>
       </c>
-      <c r="Q134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11094,7 +10952,6 @@
           <t>+9ESkP^_</t>
         </is>
       </c>
-      <c r="Q135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11173,7 +11030,6 @@
           <t>^v0+A3Yb</t>
         </is>
       </c>
-      <c r="Q136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11252,7 +11108,6 @@
           <t>)k8PoKnM</t>
         </is>
       </c>
-      <c r="Q137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11331,7 +11186,6 @@
           <t>*8G!cnYG</t>
         </is>
       </c>
-      <c r="Q138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11410,7 +11264,6 @@
           <t>%_2N#ln9</t>
         </is>
       </c>
-      <c r="Q139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -11489,7 +11342,6 @@
           <t>v)Z4gAer</t>
         </is>
       </c>
-      <c r="Q140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -11568,7 +11420,6 @@
           <t>IE$2Ag%i</t>
         </is>
       </c>
-      <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11647,7 +11498,6 @@
           <t>x)T20C(h</t>
         </is>
       </c>
-      <c r="Q142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11726,7 +11576,6 @@
           <t>@7Xkw@Hj</t>
         </is>
       </c>
-      <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11805,7 +11654,6 @@
           <t>W*n0KNfI</t>
         </is>
       </c>
-      <c r="Q144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -11884,7 +11732,6 @@
           <t>@(1ZpA5@</t>
         </is>
       </c>
-      <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -11963,7 +11810,6 @@
           <t>_3LhYsNk</t>
         </is>
       </c>
-      <c r="Q146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -12042,7 +11888,6 @@
           <t>%1joPmmh</t>
         </is>
       </c>
-      <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12121,7 +11966,6 @@
           <t>^*ZT2(Di</t>
         </is>
       </c>
-      <c r="Q148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12200,7 +12044,6 @@
           <t>h_y53pBz</t>
         </is>
       </c>
-      <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12279,7 +12122,6 @@
           <t>y%V1Wigq</t>
         </is>
       </c>
-      <c r="Q150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12358,7 +12200,6 @@
           <t>6y)((7Pc</t>
         </is>
       </c>
-      <c r="Q151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -12437,7 +12278,6 @@
           <t>7@3MVnLs</t>
         </is>
       </c>
-      <c r="Q152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12514,7 +12354,6 @@
       <c r="P153" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="Q153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12593,7 +12432,6 @@
           <t>$c6wUk#f</t>
         </is>
       </c>
-      <c r="Q154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -12672,7 +12510,6 @@
           <t>sY^1eSju</t>
         </is>
       </c>
-      <c r="Q155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -12751,7 +12588,6 @@
           <t>^7K#pc1a</t>
         </is>
       </c>
-      <c r="Q156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -12830,7 +12666,6 @@
           <t>Gn^97Blc</t>
         </is>
       </c>
-      <c r="Q157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -12909,7 +12744,6 @@
           <t>#R7U+rbx</t>
         </is>
       </c>
-      <c r="Q158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -12988,7 +12822,6 @@
           <t>o^7G&amp;SQc</t>
         </is>
       </c>
-      <c r="Q159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -13067,7 +12900,6 @@
           <t>ks$65Lfu</t>
         </is>
       </c>
-      <c r="Q160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -13146,7 +12978,6 @@
           <t>2_rL91Bi</t>
         </is>
       </c>
-      <c r="Q161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -13225,7 +13056,6 @@
           <t>+3QlRNzD</t>
         </is>
       </c>
-      <c r="Q162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -13304,7 +13134,6 @@
           <t>(_RB0SQx</t>
         </is>
       </c>
-      <c r="Q163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -13383,7 +13212,6 @@
           <t>s^06D+8p</t>
         </is>
       </c>
-      <c r="Q164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -13462,7 +13290,6 @@
           <t>Jj@8MJcD</t>
         </is>
       </c>
-      <c r="Q165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -13541,7 +13368,6 @@
           <t>1@K*82Fp</t>
         </is>
       </c>
-      <c r="Q166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -13620,7 +13446,6 @@
           <t>)2oc0Vaq</t>
         </is>
       </c>
-      <c r="Q167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -13699,7 +13524,6 @@
           <t>)@O8OfAa</t>
         </is>
       </c>
-      <c r="Q168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -13778,7 +13602,6 @@
           <t>$7Swxh5Y</t>
         </is>
       </c>
-      <c r="Q169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -13857,7 +13680,6 @@
           <t>+c4DQVMc</t>
         </is>
       </c>
-      <c r="Q170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -13936,7 +13758,6 @@
           <t>4%D1PIn!</t>
         </is>
       </c>
-      <c r="Q171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -14015,7 +13836,6 @@
           <t>)_0Ruh*(</t>
         </is>
       </c>
-      <c r="Q172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -14094,7 +13914,6 @@
           <t>^@Z4!KWs</t>
         </is>
       </c>
-      <c r="Q173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -14173,7 +13992,6 @@
           <t>&amp;aY7YEcR</t>
         </is>
       </c>
-      <c r="Q174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -14252,7 +14070,6 @@
           <t>&amp;32Iqdr&amp;</t>
         </is>
       </c>
-      <c r="Q175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -14331,7 +14148,6 @@
           <t>%dy7NL1u</t>
         </is>
       </c>
-      <c r="Q176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -14410,7 +14226,6 @@
           <t>&amp;8awUdIq</t>
         </is>
       </c>
-      <c r="Q177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -14489,7 +14304,6 @@
           <t>!p8XJrJ+</t>
         </is>
       </c>
-      <c r="Q178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -14568,7 +14382,6 @@
           <t>H(8Jk!wX</t>
         </is>
       </c>
-      <c r="Q179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -14647,7 +14460,6 @@
           <t>)5J9NfD+</t>
         </is>
       </c>
-      <c r="Q180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -14726,7 +14538,6 @@
           <t>#7W7Cn$d</t>
         </is>
       </c>
-      <c r="Q181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -14805,7 +14616,6 @@
           <t>h%q9v3Hn</t>
         </is>
       </c>
-      <c r="Q182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -14884,7 +14694,6 @@
           <t>y^K9Ac2E</t>
         </is>
       </c>
-      <c r="Q183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -14963,7 +14772,6 @@
           <t>%7IIM(iP</t>
         </is>
       </c>
-      <c r="Q184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -15042,7 +14850,6 @@
           <t>m)x@9Lzu</t>
         </is>
       </c>
-      <c r="Q185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -15121,7 +14928,6 @@
           <t>*F4X6ZEc</t>
         </is>
       </c>
-      <c r="Q186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -15200,7 +15006,6 @@
           <t>)35^DwAk</t>
         </is>
       </c>
-      <c r="Q187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -15279,7 +15084,6 @@
           <t>^+3tXnmq</t>
         </is>
       </c>
-      <c r="Q188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -15358,7 +15162,6 @@
           <t>_P8tSdBx</t>
         </is>
       </c>
-      <c r="Q189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -15437,7 +15240,6 @@
           <t>7*3wIMht</t>
         </is>
       </c>
-      <c r="Q190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -15516,7 +15318,6 @@
           <t>H+8BCwvC</t>
         </is>
       </c>
-      <c r="Q191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -15595,7 +15396,6 @@
           <t>#%cY1VaN</t>
         </is>
       </c>
-      <c r="Q192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -15674,7 +15474,6 @@
           <t>V&amp;0E5QXv</t>
         </is>
       </c>
-      <c r="Q193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -15753,7 +15552,6 @@
           <t>p)*4BUvk</t>
         </is>
       </c>
-      <c r="Q194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -15832,7 +15630,6 @@
           <t>j%5K6Bls</t>
         </is>
       </c>
-      <c r="Q195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -15911,7 +15708,6 @@
           <t>(g4N*Axj</t>
         </is>
       </c>
-      <c r="Q196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -15990,7 +15786,6 @@
           <t>O+1jKOsR</t>
         </is>
       </c>
-      <c r="Q197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -16069,7 +15864,6 @@
           <t>e#2pHXhn</t>
         </is>
       </c>
-      <c r="Q198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -16148,7 +15942,6 @@
           <t>_5QyswoC</t>
         </is>
       </c>
-      <c r="Q199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -16226,257 +16019,6 @@
         <is>
           <t>$54ULQoy</t>
         </is>
-      </c>
-      <c r="Q200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Emp_199</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>William</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Golden</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>esantiago@example.org</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>911-554-7956</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>02-08-2022</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>['Machine Learning', 'Swift', 'Data Visualization', 'Docker']</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>13-12-1931</t>
-        </is>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>Stanleyborough</t>
-        </is>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>North Dakota</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>3</v>
-      </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="O201" t="b">
-        <v>0</v>
-      </c>
-      <c r="P201" t="inlineStr">
-        <is>
-          <t>6*B*7VGm</t>
-        </is>
-      </c>
-      <c r="Q201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Emp_210</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Kaustubhhhh</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Gupta</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>kaustubhgupta@gbtghrththjmangroup.com</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>08979630137</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H202" s="2" t="n">
-        <v>45393</v>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>DBT, Azure, Full Stack, NodeJs, JavaScript</t>
-        </is>
-      </c>
-      <c r="J202" s="2" t="n">
-        <v>45400</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>Dehradun</t>
-        </is>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="M202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>employee</t>
-        </is>
-      </c>
-      <c r="O202" t="b">
-        <v>0</v>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>nofM</t>
-        </is>
-      </c>
-      <c r="Q202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Emp_211</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Kaustubhcddc</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Kaustubh</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>kacffvvustubhgupta@jmanefcdcddgroup.com</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>08979630137</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H203" s="2" t="n">
-        <v>45406</v>
-      </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>DBT, Azure, Full Stack, NodeJs, JavaScript</t>
-        </is>
-      </c>
-      <c r="J203" s="2" t="n">
-        <v>45400</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>Dehradun</t>
-        </is>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="O203" t="b">
-        <v>0</v>
-      </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>R9mW</t>
-        </is>
-      </c>
-      <c r="Q203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr"/>
-      <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
